--- a/货源/绿高/进货bob.xlsx
+++ b/货源/绿高/进货bob.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2015.5.12" sheetId="1" r:id="rId1"/>
     <sheet name="2015.6.17" sheetId="2" r:id="rId2"/>
     <sheet name="2015.7.2" sheetId="3" r:id="rId3"/>
+    <sheet name="2015.7.28" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +200,17 @@
   </si>
   <si>
     <t>G27外调节自锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R28长亮+鼠尾</t>
+  </si>
+  <si>
+    <t>R28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,6 +1521,147 @@
         <a:xfrm>
           <a:off x="990600" y="7048500"/>
           <a:ext cx="1038225" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 23" descr="QQ图片20141224150607"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1419225" y="295275"/>
+          <a:ext cx="933450" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 22" descr="QQ图片20141224150514"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1019175" y="1028700"/>
+          <a:ext cx="1066800" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1832,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2098,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2235,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2393,4 +2546,139 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3" si="0">D3*E3</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SUM(F2:F4)</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>